--- a/AAII_Financials/Quarterly/EXEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXEO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>EXEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43799</v>
+      </c>
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43616</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43524</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43434</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43343</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43251</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43159</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43069</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42886</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42794</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42704</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -740,14 +747,14 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -790,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -819,8 +832,14 @@
       <c r="P9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -828,7 +847,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -863,8 +882,14 @@
       <c r="P10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,43 +1123,45 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>200</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>200</v>
+      </c>
+      <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
@@ -1116,8 +1169,14 @@
       <c r="P17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1184,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-300</v>
-      </c>
       <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-300</v>
-      </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,14 +1254,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1222,8 +1289,14 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1304,49 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-300</v>
-      </c>
       <c r="O21" s="3">
         <v>-300</v>
       </c>
       <c r="P21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1389,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-300</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-300</v>
-      </c>
       <c r="O23" s="3">
         <v>-300</v>
       </c>
       <c r="P23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,60 +1539,72 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-300</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-300</v>
-      </c>
       <c r="O26" s="3">
         <v>-300</v>
       </c>
       <c r="P26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-400</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F27" s="3">
         <v>-400</v>
@@ -1504,7 +1613,7 @@
         <v>-300</v>
       </c>
       <c r="H27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
@@ -1513,25 +1622,31 @@
         <v>-300</v>
       </c>
       <c r="K27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-300</v>
-      </c>
       <c r="P27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,14 +1854,14 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1750,16 +1889,22 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-400</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F33" s="3">
         <v>-400</v>
@@ -1768,7 +1913,7 @@
         <v>-300</v>
       </c>
       <c r="H33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
@@ -1777,25 +1922,31 @@
         <v>-300</v>
       </c>
       <c r="K33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-300</v>
-      </c>
       <c r="P33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,16 +1989,22 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-400</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F35" s="3">
         <v>-400</v>
@@ -1856,7 +2013,7 @@
         <v>-300</v>
       </c>
       <c r="H35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
@@ -1865,74 +2022,86 @@
         <v>-300</v>
       </c>
       <c r="K35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-300</v>
-      </c>
       <c r="P35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43799</v>
+      </c>
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43616</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43524</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43434</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43343</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43251</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43159</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43069</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42886</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42794</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42704</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,31 +2138,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
@@ -2000,19 +2173,25 @@
         <v>200</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
+        <v>200</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2234,14 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2064,14 +2249,14 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
@@ -2084,11 +2269,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>4</v>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2108,19 +2299,19 @@
         <v>300</v>
       </c>
       <c r="E44" s="3">
+        <v>300</v>
+      </c>
+      <c r="F44" s="3">
+        <v>300</v>
+      </c>
+      <c r="G44" s="3">
         <v>100</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
       <c r="H44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3">
         <v>100</v>
@@ -2129,33 +2320,39 @@
         <v>100</v>
       </c>
       <c r="L44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="M44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N44" s="3">
         <v>300</v>
       </c>
       <c r="O44" s="3">
+        <v>300</v>
+      </c>
+      <c r="P44" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q44" s="3">
         <v>200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2167,72 +2364,84 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
-      </c>
-      <c r="H46" s="3">
-        <v>300</v>
-      </c>
-      <c r="I46" s="3">
-        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
+        <v>200</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
+        <v>300</v>
+      </c>
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,26 +2484,32 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
       </c>
       <c r="F48" s="3">
+        <v>200</v>
+      </c>
+      <c r="G48" s="3">
+        <v>200</v>
+      </c>
+      <c r="H48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
@@ -2311,16 +2526,22 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>600</v>
+      </c>
+      <c r="F54" s="3">
         <v>800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>300</v>
-      </c>
-      <c r="I54" s="3">
-        <v>200</v>
       </c>
       <c r="J54" s="3">
         <v>300</v>
       </c>
       <c r="K54" s="3">
+        <v>200</v>
+      </c>
+      <c r="L54" s="3">
+        <v>300</v>
+      </c>
+      <c r="M54" s="3">
         <v>400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>600</v>
-      </c>
-      <c r="M54" s="3">
-        <v>500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>400</v>
       </c>
       <c r="O54" s="3">
         <v>500</v>
       </c>
       <c r="P54" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,10 +2889,10 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,96 +2974,114 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2848,14 +3139,14 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,52 +3494,64 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E70" s="3">
         <v>2000</v>
       </c>
       <c r="F70" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G70" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H70" s="3">
         <v>1900</v>
       </c>
-      <c r="G70" s="3">
+      <c r="I70" s="3">
         <v>1900</v>
-      </c>
-      <c r="H70" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I70" s="3">
-        <v>1800</v>
       </c>
       <c r="J70" s="3">
         <v>1800</v>
       </c>
       <c r="K70" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L70" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M70" s="3">
         <v>1700</v>
       </c>
-      <c r="L70" s="3">
+      <c r="N70" s="3">
         <v>1700</v>
-      </c>
-      <c r="M70" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N70" s="3">
-        <v>1600</v>
       </c>
       <c r="O70" s="3">
         <v>1600</v>
       </c>
       <c r="P70" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R70" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="F72" s="3">
         <v>-9600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-9200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-9000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-8600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-8300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-8000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-7700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-7400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-6100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-5700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-3000</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-3000</v>
       </c>
       <c r="G76" s="3">
         <v>-3000</v>
       </c>
       <c r="H76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J76" s="3">
         <v>-2900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-2100</v>
       </c>
       <c r="N76" s="3">
         <v>-2100</v>
       </c>
       <c r="O76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-1900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,65 +3894,77 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43799</v>
+      </c>
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43616</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43524</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43434</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43343</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43251</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43159</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43069</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42886</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42794</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42704</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-400</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F81" s="3">
         <v>-400</v>
@@ -3584,7 +3973,7 @@
         <v>-300</v>
       </c>
       <c r="H81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
@@ -3593,25 +3982,31 @@
         <v>-300</v>
       </c>
       <c r="K81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-300</v>
-      </c>
       <c r="P81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,34 +4319,40 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
-      </c>
       <c r="G89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
       </c>
       <c r="K89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3968,11 +4409,11 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -3980,26 +4421,32 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4121,17 +4580,23 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>200</v>
       </c>
       <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
+        <v>200</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4421,39 +4924,45 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EXEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>EXEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43616</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43524</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43434</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43343</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43251</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43159</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43069</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42978</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42886</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42794</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42704</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -753,11 +757,11 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,17 +804,17 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,11 +857,11 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,46 +1151,47 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>400</v>
       </c>
       <c r="I17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>300</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,38 +1214,38 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
-        <v>-300</v>
-      </c>
       <c r="G18" s="3">
         <v>-300</v>
       </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
-        <v>-300</v>
-      </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>-300</v>
-      </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
-        <v>-300</v>
-      </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1260,11 +1294,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,38 +1341,38 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
-        <v>-300</v>
-      </c>
       <c r="G21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
-        <v>-300</v>
-      </c>
       <c r="J21" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K21" s="3">
         <v>-200</v>
       </c>
       <c r="L21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
-        <v>-300</v>
-      </c>
       <c r="P21" s="3">
         <v>-300</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,47 +1435,50 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
-        <v>-300</v>
-      </c>
       <c r="G23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
-        <v>-300</v>
-      </c>
       <c r="J23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
       </c>
       <c r="L23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
-        <v>-300</v>
-      </c>
       <c r="P23" s="3">
         <v>-300</v>
       </c>
@@ -1445,8 +1488,11 @@
       <c r="R23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,47 +1594,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
-        <v>-300</v>
-      </c>
       <c r="G26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
-        <v>-300</v>
-      </c>
       <c r="J26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
       </c>
       <c r="L26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
-        <v>-300</v>
-      </c>
       <c r="P26" s="3">
         <v>-300</v>
       </c>
@@ -1595,29 +1647,32 @@
       <c r="R26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-300</v>
-      </c>
       <c r="H27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
-        <v>-300</v>
-      </c>
       <c r="J27" s="3">
         <v>-300</v>
       </c>
@@ -1628,25 +1683,28 @@
         <v>-300</v>
       </c>
       <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-500</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-400</v>
       </c>
       <c r="O27" s="3">
         <v>-400</v>
       </c>
       <c r="P27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="Q27" s="3">
         <v>-300</v>
       </c>
       <c r="R27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1860,11 +1930,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1895,29 +1965,32 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-300</v>
-      </c>
       <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
-        <v>-300</v>
-      </c>
       <c r="J33" s="3">
         <v>-300</v>
       </c>
@@ -1928,25 +2001,28 @@
         <v>-300</v>
       </c>
       <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-500</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-400</v>
       </c>
       <c r="O33" s="3">
         <v>-400</v>
       </c>
       <c r="P33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="Q33" s="3">
         <v>-300</v>
       </c>
       <c r="R33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,29 +2071,32 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-300</v>
-      </c>
       <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
-        <v>-300</v>
-      </c>
       <c r="J35" s="3">
         <v>-300</v>
       </c>
@@ -2028,80 +2107,86 @@
         <v>-300</v>
       </c>
       <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-500</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-400</v>
       </c>
       <c r="O35" s="3">
         <v>-400</v>
       </c>
       <c r="P35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="Q35" s="3">
         <v>-300</v>
       </c>
       <c r="R35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43616</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43524</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43434</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43343</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43251</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43159</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43069</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42978</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42886</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42794</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42704</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2152,7 +2239,7 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>200</v>
@@ -2161,37 +2248,40 @@
         <v>200</v>
       </c>
       <c r="I41" s="3">
+        <v>200</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>200</v>
       </c>
       <c r="O41" s="3">
         <v>200</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
       </c>
       <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2255,11 +2348,11 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
@@ -2275,8 +2368,8 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
+      <c r="N43" s="3">
+        <v>0</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>4</v>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2305,16 +2401,16 @@
         <v>300</v>
       </c>
       <c r="G44" s="3">
+        <v>300</v>
+      </c>
+      <c r="H44" s="3">
         <v>100</v>
       </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>100</v>
@@ -2326,7 +2422,7 @@
         <v>100</v>
       </c>
       <c r="N44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="O44" s="3">
         <v>300</v>
@@ -2335,13 +2431,16 @@
         <v>300</v>
       </c>
       <c r="Q44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2349,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
@@ -2358,16 +2457,16 @@
         <v>100</v>
       </c>
       <c r="H45" s="3">
+        <v>100</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2376,22 +2475,25 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2402,46 +2504,49 @@
         <v>400</v>
       </c>
       <c r="F46" s="3">
+        <v>400</v>
+      </c>
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
-      </c>
-      <c r="I46" s="3">
-        <v>300</v>
       </c>
       <c r="J46" s="3">
         <v>300</v>
       </c>
       <c r="K46" s="3">
+        <v>300</v>
+      </c>
+      <c r="L46" s="3">
         <v>200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>300</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
       </c>
       <c r="N46" s="3">
+        <v>300</v>
+      </c>
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>400</v>
       </c>
       <c r="R46" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2499,7 +2607,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -2508,11 +2616,11 @@
         <v>200</v>
       </c>
       <c r="H48" s="3">
+        <v>200</v>
+      </c>
+      <c r="I48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
@@ -2532,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2799,49 +2925,52 @@
         <v>500</v>
       </c>
       <c r="E54" s="3">
+        <v>500</v>
+      </c>
+      <c r="F54" s="3">
         <v>600</v>
-      </c>
-      <c r="F54" s="3">
-        <v>800</v>
       </c>
       <c r="G54" s="3">
         <v>800</v>
       </c>
       <c r="H54" s="3">
+        <v>800</v>
+      </c>
+      <c r="I54" s="3">
         <v>500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>300</v>
       </c>
       <c r="J54" s="3">
         <v>300</v>
       </c>
       <c r="K54" s="3">
+        <v>300</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>500</v>
       </c>
       <c r="R54" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2895,7 +3026,7 @@
         <v>100</v>
       </c>
       <c r="G57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2989,99 +3126,105 @@
         <v>1900</v>
       </c>
       <c r="E59" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F59" s="3">
         <v>1800</v>
       </c>
       <c r="G59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1300</v>
       </c>
       <c r="K59" s="3">
         <v>1300</v>
       </c>
       <c r="L59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>700</v>
       </c>
       <c r="R59" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E60" s="3">
         <v>1900</v>
       </c>
       <c r="F60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1400</v>
       </c>
       <c r="J60" s="3">
         <v>1400</v>
       </c>
       <c r="K60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L60" s="3">
         <v>1300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1100</v>
       </c>
       <c r="N60" s="3">
         <v>1100</v>
       </c>
       <c r="O60" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="P60" s="3">
         <v>900</v>
       </c>
       <c r="Q60" s="3">
+        <v>900</v>
+      </c>
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3145,11 +3291,11 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3485,11 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3339,49 +3497,52 @@
         <v>2000</v>
       </c>
       <c r="E66" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F66" s="3">
         <v>1900</v>
       </c>
       <c r="G66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H66" s="3">
         <v>1800</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1500</v>
       </c>
       <c r="I66" s="3">
         <v>1500</v>
       </c>
       <c r="J66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1200</v>
       </c>
       <c r="M66" s="3">
         <v>1200</v>
       </c>
       <c r="N66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3509,7 +3677,7 @@
         <v>2100</v>
       </c>
       <c r="E70" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="F70" s="3">
         <v>2000</v>
@@ -3518,13 +3686,13 @@
         <v>2000</v>
       </c>
       <c r="H70" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I70" s="3">
         <v>1900</v>
       </c>
       <c r="J70" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K70" s="3">
         <v>1800</v>
@@ -3533,13 +3701,13 @@
         <v>1800</v>
       </c>
       <c r="M70" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="N70" s="3">
         <v>1700</v>
       </c>
       <c r="O70" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="P70" s="3">
         <v>1600</v>
@@ -3548,10 +3716,13 @@
         <v>1600</v>
       </c>
       <c r="R70" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S70" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-9600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-8600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-7700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-6900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,22 +3983,25 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-5600</v>
+        <v>-3600</v>
       </c>
       <c r="E76" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-3000</v>
       </c>
       <c r="H76" s="3">
         <v>-3000</v>
@@ -3824,19 +4010,19 @@
         <v>-3000</v>
       </c>
       <c r="J76" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="K76" s="3">
         <v>-2900</v>
       </c>
       <c r="L76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="M76" s="3">
         <v>-2700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2500</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-2100</v>
       </c>
       <c r="O76" s="3">
         <v>-2100</v>
@@ -3845,13 +4031,16 @@
         <v>-2100</v>
       </c>
       <c r="Q76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="R76" s="3">
         <v>-1900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,84 +4089,90 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="E80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43616</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43524</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43434</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43343</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43251</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43159</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43069</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42978</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42886</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42794</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42704</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-300</v>
-      </c>
       <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
-        <v>-300</v>
-      </c>
       <c r="J81" s="3">
         <v>-300</v>
       </c>
@@ -3988,25 +4183,28 @@
         <v>-300</v>
       </c>
       <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-500</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-400</v>
       </c>
       <c r="O81" s="3">
         <v>-400</v>
       </c>
       <c r="P81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="Q81" s="3">
         <v>-300</v>
       </c>
       <c r="R81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,37 +4539,40 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-300</v>
       </c>
       <c r="F89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>-300</v>
-      </c>
       <c r="H89" s="3">
         <v>-300</v>
       </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4415,8 +4636,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -4427,8 +4648,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4436,17 +4657,20 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4586,17 +4816,20 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
-      </c>
-      <c r="E100" s="3">
-        <v>200</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
+        <v>200</v>
+      </c>
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
-      </c>
-      <c r="I100" s="3">
-        <v>200</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>200</v>
       </c>
       <c r="R100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4924,29 +5176,29 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -4954,15 +5206,18 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EXEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>EXEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
         <v>43982</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -760,11 +764,11 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,17 +814,17 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,11 +870,11 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,49 +1178,50 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>400</v>
       </c>
       <c r="I17" s="3">
         <v>400</v>
       </c>
       <c r="J17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>300</v>
       </c>
       <c r="Q17" s="3">
         <v>300</v>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,41 +1244,41 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
-        <v>-300</v>
-      </c>
       <c r="H18" s="3">
         <v>-300</v>
       </c>
       <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
-        <v>-300</v>
-      </c>
       <c r="K18" s="3">
         <v>-300</v>
       </c>
       <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
-        <v>-300</v>
-      </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q18" s="3">
         <v>-300</v>
       </c>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,7 +1322,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1297,11 +1331,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,41 +1378,41 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
-        <v>-300</v>
-      </c>
       <c r="H21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
-        <v>-300</v>
-      </c>
       <c r="K21" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L21" s="3">
         <v>-200</v>
       </c>
       <c r="M21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q21" s="3">
         <v>-300</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,50 +1478,53 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-300</v>
-      </c>
       <c r="K23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
       <c r="M23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q23" s="3">
         <v>-300</v>
       </c>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,50 +1646,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-300</v>
-      </c>
       <c r="K26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
       </c>
       <c r="M26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="N26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q26" s="3">
         <v>-300</v>
       </c>
@@ -1650,32 +1702,35 @@
       <c r="S26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
-        <v>-300</v>
-      </c>
       <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
-        <v>-300</v>
-      </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
@@ -1686,25 +1741,28 @@
         <v>-300</v>
       </c>
       <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-500</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-400</v>
       </c>
       <c r="P27" s="3">
         <v>-400</v>
       </c>
       <c r="Q27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="R27" s="3">
         <v>-300</v>
       </c>
       <c r="S27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,7 +1994,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -1933,11 +2003,11 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -1968,32 +2038,35 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
-        <v>-300</v>
-      </c>
       <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
-        <v>-300</v>
-      </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
@@ -2004,25 +2077,28 @@
         <v>-300</v>
       </c>
       <c r="N33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O33" s="3">
         <v>-500</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-400</v>
       </c>
       <c r="P33" s="3">
         <v>-400</v>
       </c>
       <c r="Q33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="R33" s="3">
         <v>-300</v>
       </c>
       <c r="S33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,32 +2150,35 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
-        <v>-300</v>
-      </c>
       <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
-        <v>-300</v>
-      </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
@@ -2110,83 +2189,89 @@
         <v>-300</v>
       </c>
       <c r="N35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O35" s="3">
         <v>-500</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-400</v>
       </c>
       <c r="P35" s="3">
         <v>-400</v>
       </c>
       <c r="Q35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="R35" s="3">
         <v>-300</v>
       </c>
       <c r="S35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
         <v>43982</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2242,7 +2329,7 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
@@ -2251,37 +2338,40 @@
         <v>200</v>
       </c>
       <c r="J41" s="3">
+        <v>200</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>200</v>
       </c>
       <c r="P41" s="3">
         <v>200</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
       </c>
       <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2351,11 +2444,11 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
         <v>0</v>
       </c>
@@ -2371,8 +2464,8 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2404,16 +2500,16 @@
         <v>300</v>
       </c>
       <c r="H44" s="3">
+        <v>300</v>
+      </c>
+      <c r="I44" s="3">
         <v>100</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
       <c r="J44" s="3">
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
         <v>100</v>
@@ -2425,7 +2521,7 @@
         <v>100</v>
       </c>
       <c r="O44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="P44" s="3">
         <v>300</v>
@@ -2434,13 +2530,16 @@
         <v>300</v>
       </c>
       <c r="R44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2451,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2460,16 +2559,16 @@
         <v>100</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2478,22 +2577,25 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2507,46 +2609,49 @@
         <v>400</v>
       </c>
       <c r="G46" s="3">
+        <v>400</v>
+      </c>
+      <c r="H46" s="3">
         <v>600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>300</v>
       </c>
       <c r="K46" s="3">
         <v>300</v>
       </c>
       <c r="L46" s="3">
+        <v>300</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>300</v>
       </c>
       <c r="N46" s="3">
         <v>300</v>
       </c>
       <c r="O46" s="3">
+        <v>300</v>
+      </c>
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
-      </c>
-      <c r="R46" s="3">
-        <v>400</v>
       </c>
       <c r="S46" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2610,7 +2718,7 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -2619,11 +2727,11 @@
         <v>200</v>
       </c>
       <c r="I48" s="3">
+        <v>200</v>
+      </c>
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
@@ -2643,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2928,49 +3054,52 @@
         <v>500</v>
       </c>
       <c r="F54" s="3">
+        <v>500</v>
+      </c>
+      <c r="G54" s="3">
         <v>600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>800</v>
       </c>
       <c r="H54" s="3">
         <v>800</v>
       </c>
       <c r="I54" s="3">
+        <v>800</v>
+      </c>
+      <c r="J54" s="3">
         <v>500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>300</v>
       </c>
       <c r="K54" s="3">
         <v>300</v>
       </c>
       <c r="L54" s="3">
+        <v>300</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
-      </c>
-      <c r="R54" s="3">
-        <v>500</v>
       </c>
       <c r="S54" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3029,7 +3160,7 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,114 +3251,123 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="E59" s="3">
         <v>1900</v>
       </c>
       <c r="F59" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G59" s="3">
         <v>1800</v>
       </c>
       <c r="H59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1300</v>
       </c>
       <c r="L59" s="3">
         <v>1300</v>
       </c>
       <c r="M59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>800</v>
-      </c>
-      <c r="R59" s="3">
-        <v>700</v>
       </c>
       <c r="S59" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1900</v>
       </c>
       <c r="F60" s="3">
         <v>1900</v>
       </c>
       <c r="G60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H60" s="3">
         <v>1800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1400</v>
       </c>
       <c r="K60" s="3">
         <v>1400</v>
       </c>
       <c r="L60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1100</v>
       </c>
       <c r="O60" s="3">
         <v>1100</v>
       </c>
       <c r="P60" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="Q60" s="3">
         <v>900</v>
       </c>
       <c r="R60" s="3">
+        <v>900</v>
+      </c>
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3294,11 +3440,11 @@
         <v>0</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>100</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E66" s="3">
         <v>2000</v>
       </c>
       <c r="F66" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G66" s="3">
         <v>1900</v>
       </c>
       <c r="H66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I66" s="3">
         <v>1800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1500</v>
       </c>
       <c r="J66" s="3">
         <v>1500</v>
       </c>
       <c r="K66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L66" s="3">
         <v>1400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1200</v>
       </c>
       <c r="N66" s="3">
         <v>1200</v>
       </c>
       <c r="O66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,19 +3833,22 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E70" s="3">
         <v>2100</v>
       </c>
       <c r="F70" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G70" s="3">
         <v>2000</v>
@@ -3689,13 +3857,13 @@
         <v>2000</v>
       </c>
       <c r="I70" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J70" s="3">
         <v>1900</v>
       </c>
       <c r="K70" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="L70" s="3">
         <v>1800</v>
@@ -3704,13 +3872,13 @@
         <v>1800</v>
       </c>
       <c r="N70" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="O70" s="3">
         <v>1700</v>
       </c>
       <c r="P70" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="Q70" s="3">
         <v>1600</v>
@@ -3719,10 +3887,13 @@
         <v>1600</v>
       </c>
       <c r="S70" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T70" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-10800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-9600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-8600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-7700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-5700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,25 +4169,28 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-3000</v>
       </c>
       <c r="I76" s="3">
         <v>-3000</v>
@@ -4013,19 +4199,19 @@
         <v>-3000</v>
       </c>
       <c r="K76" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="L76" s="3">
         <v>-2900</v>
       </c>
       <c r="M76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="N76" s="3">
         <v>-2700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2500</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-2100</v>
       </c>
       <c r="P76" s="3">
         <v>-2100</v>
@@ -4034,13 +4220,16 @@
         <v>-2100</v>
       </c>
       <c r="R76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="S76" s="3">
         <v>-1900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,90 +4281,96 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
         <v>43982</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
-        <v>-300</v>
-      </c>
       <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
-        <v>-300</v>
-      </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
@@ -4186,25 +4381,28 @@
         <v>-300</v>
       </c>
       <c r="N81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O81" s="3">
         <v>-500</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-400</v>
       </c>
       <c r="P81" s="3">
         <v>-400</v>
       </c>
       <c r="Q81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="R81" s="3">
         <v>-300</v>
       </c>
       <c r="S81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,40 +4756,43 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E89" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F89" s="3">
         <v>-300</v>
       </c>
       <c r="G89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>-300</v>
-      </c>
       <c r="I89" s="3">
         <v>-300</v>
       </c>
       <c r="J89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4639,8 +4860,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -4651,8 +4872,8 @@
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4660,17 +4881,20 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4819,17 +5049,20 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
-      </c>
-      <c r="F100" s="3">
-        <v>200</v>
       </c>
       <c r="G100" s="3">
         <v>200</v>
       </c>
       <c r="H100" s="3">
+        <v>200</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>200</v>
       </c>
       <c r="K100" s="3">
         <v>200</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
-      </c>
-      <c r="R100" s="3">
-        <v>200</v>
       </c>
       <c r="S100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5179,29 +5431,29 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -5209,15 +5461,18 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EXEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>EXEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,11 +770,11 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -802,13 +805,16 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -817,17 +823,17 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,11 +882,11 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,52 +1204,53 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>400</v>
       </c>
       <c r="J17" s="3">
         <v>400</v>
       </c>
       <c r="K17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
       </c>
       <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>300</v>
       </c>
       <c r="R17" s="3">
         <v>300</v>
@@ -1235,8 +1261,11 @@
       <c r="T17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,44 +1273,44 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
-        <v>-300</v>
-      </c>
       <c r="I18" s="3">
         <v>-300</v>
       </c>
       <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
-        <v>-300</v>
-      </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
-        <v>-300</v>
-      </c>
       <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
-      </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
@@ -1291,8 +1320,11 @@
       <c r="T18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,11 +1355,11 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1334,11 +1367,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1369,8 +1402,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,44 +1414,44 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
-        <v>-300</v>
-      </c>
       <c r="I21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
-        <v>-300</v>
-      </c>
       <c r="L21" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M21" s="3">
         <v>-200</v>
       </c>
       <c r="N21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
-        <v>-300</v>
-      </c>
       <c r="R21" s="3">
         <v>-300</v>
       </c>
@@ -1425,8 +1461,11 @@
       <c r="T21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,53 +1520,56 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
-        <v>-300</v>
-      </c>
       <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
-        <v>-300</v>
-      </c>
       <c r="L23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
       </c>
       <c r="N23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
-        <v>-300</v>
-      </c>
       <c r="R23" s="3">
         <v>-300</v>
       </c>
@@ -1537,8 +1579,11 @@
       <c r="T23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,53 +1697,56 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
-        <v>-300</v>
-      </c>
       <c r="I26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
-        <v>-300</v>
-      </c>
       <c r="L26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
       </c>
       <c r="N26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
-        <v>-300</v>
-      </c>
       <c r="R26" s="3">
         <v>-300</v>
       </c>
@@ -1705,35 +1756,38 @@
       <c r="T26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
-        <v>-300</v>
-      </c>
       <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
-        <v>-300</v>
-      </c>
       <c r="L27" s="3">
         <v>-300</v>
       </c>
@@ -1744,25 +1798,28 @@
         <v>-300</v>
       </c>
       <c r="O27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P27" s="3">
         <v>-500</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-400</v>
       </c>
       <c r="Q27" s="3">
         <v>-400</v>
       </c>
       <c r="R27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S27" s="3">
         <v>-300</v>
       </c>
       <c r="T27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,11 +2063,11 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2006,11 +2075,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2041,35 +2110,38 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
-        <v>-300</v>
-      </c>
       <c r="J33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
-        <v>-300</v>
-      </c>
       <c r="L33" s="3">
         <v>-300</v>
       </c>
@@ -2080,25 +2152,28 @@
         <v>-300</v>
       </c>
       <c r="O33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P33" s="3">
         <v>-500</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-400</v>
       </c>
       <c r="Q33" s="3">
         <v>-400</v>
       </c>
       <c r="R33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S33" s="3">
         <v>-300</v>
       </c>
       <c r="T33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,35 +2228,38 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
-        <v>-300</v>
-      </c>
       <c r="J35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
-        <v>-300</v>
-      </c>
       <c r="L35" s="3">
         <v>-300</v>
       </c>
@@ -2192,86 +2270,92 @@
         <v>-300</v>
       </c>
       <c r="O35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P35" s="3">
         <v>-500</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-400</v>
       </c>
       <c r="Q35" s="3">
         <v>-400</v>
       </c>
       <c r="R35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S35" s="3">
         <v>-300</v>
       </c>
       <c r="T35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,13 +2399,14 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2332,7 +2418,7 @@
         <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
@@ -2341,37 +2427,40 @@
         <v>200</v>
       </c>
       <c r="K41" s="3">
+        <v>200</v>
+      </c>
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>200</v>
       </c>
       <c r="Q41" s="3">
         <v>200</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2447,11 +2539,11 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
@@ -2467,8 +2559,8 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>4</v>
@@ -2482,13 +2574,16 @@
       <c r="T43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>300</v>
@@ -2503,16 +2598,16 @@
         <v>300</v>
       </c>
       <c r="I44" s="3">
+        <v>300</v>
+      </c>
+      <c r="J44" s="3">
         <v>100</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
         <v>100</v>
@@ -2524,7 +2619,7 @@
         <v>100</v>
       </c>
       <c r="P44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q44" s="3">
         <v>300</v>
@@ -2533,13 +2628,16 @@
         <v>300</v>
       </c>
       <c r="S44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2553,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2562,16 +2660,16 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2580,27 +2678,30 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>400</v>
@@ -2612,46 +2713,49 @@
         <v>400</v>
       </c>
       <c r="H46" s="3">
+        <v>400</v>
+      </c>
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
-      </c>
-      <c r="K46" s="3">
-        <v>300</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
       </c>
       <c r="M46" s="3">
+        <v>300</v>
+      </c>
+      <c r="N46" s="3">
         <v>200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
       </c>
       <c r="P46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
-      </c>
-      <c r="S46" s="3">
-        <v>400</v>
       </c>
       <c r="T46" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,13 +2810,16 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E48" s="3">
         <v>100</v>
@@ -2721,7 +2828,7 @@
         <v>100</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H48" s="3">
         <v>200</v>
@@ -2730,11 +2837,11 @@
         <v>200</v>
       </c>
       <c r="J48" s="3">
+        <v>200</v>
+      </c>
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
@@ -2754,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -2762,31 +2869,34 @@
       <c r="T48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3164,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3057,49 +3182,52 @@
         <v>500</v>
       </c>
       <c r="G54" s="3">
+        <v>500</v>
+      </c>
+      <c r="H54" s="3">
         <v>600</v>
-      </c>
-      <c r="H54" s="3">
-        <v>800</v>
       </c>
       <c r="I54" s="3">
         <v>800</v>
       </c>
       <c r="J54" s="3">
+        <v>800</v>
+      </c>
+      <c r="K54" s="3">
         <v>500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>300</v>
       </c>
       <c r="L54" s="3">
         <v>300</v>
       </c>
       <c r="M54" s="3">
+        <v>300</v>
+      </c>
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
-      </c>
-      <c r="S54" s="3">
-        <v>500</v>
       </c>
       <c r="T54" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,13 +3271,14 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>100</v>
@@ -3163,7 +3293,7 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>0</v>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,120 +3387,129 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1900</v>
       </c>
       <c r="F59" s="3">
         <v>1900</v>
       </c>
       <c r="G59" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H59" s="3">
         <v>1800</v>
       </c>
       <c r="I59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1300</v>
       </c>
       <c r="M59" s="3">
         <v>1300</v>
       </c>
       <c r="N59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
-      </c>
-      <c r="S59" s="3">
-        <v>700</v>
       </c>
       <c r="T59" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1900</v>
       </c>
       <c r="G60" s="3">
         <v>1900</v>
       </c>
       <c r="H60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I60" s="3">
         <v>1800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1400</v>
       </c>
       <c r="L60" s="3">
         <v>1400</v>
       </c>
       <c r="M60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1100</v>
       </c>
       <c r="P60" s="3">
         <v>1100</v>
       </c>
       <c r="Q60" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="R60" s="3">
         <v>900</v>
       </c>
       <c r="S60" s="3">
+        <v>900</v>
+      </c>
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,13 +3564,16 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -3443,11 +3588,11 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>100</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2100</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2000</v>
       </c>
       <c r="F66" s="3">
         <v>2000</v>
       </c>
       <c r="G66" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H66" s="3">
         <v>1900</v>
       </c>
       <c r="I66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J66" s="3">
         <v>1800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1500</v>
       </c>
       <c r="K66" s="3">
         <v>1500</v>
       </c>
       <c r="L66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M66" s="3">
         <v>1400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1200</v>
       </c>
       <c r="O66" s="3">
         <v>1200</v>
       </c>
       <c r="P66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,22 +4000,25 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E70" s="3">
         <v>2000</v>
-      </c>
-      <c r="E70" s="3">
-        <v>2100</v>
       </c>
       <c r="F70" s="3">
         <v>2100</v>
       </c>
       <c r="G70" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H70" s="3">
         <v>2000</v>
@@ -3860,13 +4027,13 @@
         <v>2000</v>
       </c>
       <c r="J70" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K70" s="3">
         <v>1900</v>
       </c>
       <c r="L70" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="M70" s="3">
         <v>1800</v>
@@ -3875,13 +4042,13 @@
         <v>1800</v>
       </c>
       <c r="O70" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="P70" s="3">
         <v>1700</v>
       </c>
       <c r="Q70" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="R70" s="3">
         <v>1600</v>
@@ -3890,10 +4057,13 @@
         <v>1600</v>
       </c>
       <c r="T70" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U70" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-9600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-7700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,28 +4354,31 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-3000</v>
       </c>
       <c r="J76" s="3">
         <v>-3000</v>
@@ -4202,19 +4387,19 @@
         <v>-3000</v>
       </c>
       <c r="L76" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="M76" s="3">
         <v>-2900</v>
       </c>
       <c r="N76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="O76" s="3">
         <v>-2700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2500</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-2100</v>
       </c>
       <c r="Q76" s="3">
         <v>-2100</v>
@@ -4223,13 +4408,16 @@
         <v>-2100</v>
       </c>
       <c r="S76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="T76" s="3">
         <v>-1900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,96 +4472,102 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
-        <v>-300</v>
-      </c>
       <c r="J81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
-        <v>-300</v>
-      </c>
       <c r="L81" s="3">
         <v>-300</v>
       </c>
@@ -4384,25 +4578,28 @@
         <v>-300</v>
       </c>
       <c r="O81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P81" s="3">
         <v>-500</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-400</v>
       </c>
       <c r="Q81" s="3">
         <v>-400</v>
       </c>
       <c r="R81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="S81" s="3">
         <v>-300</v>
       </c>
       <c r="T81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,34 +4984,34 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
-        <v>-300</v>
-      </c>
       <c r="G89" s="3">
         <v>-300</v>
       </c>
       <c r="H89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>-300</v>
-      </c>
       <c r="J89" s="3">
         <v>-300</v>
       </c>
       <c r="K89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4863,8 +5083,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -4875,8 +5095,8 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4884,17 +5104,20 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5052,17 +5281,20 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5316,55 +5561,58 @@
         <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
-      </c>
-      <c r="G100" s="3">
-        <v>200</v>
       </c>
       <c r="H100" s="3">
         <v>200</v>
       </c>
       <c r="I100" s="3">
+        <v>200</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
-      </c>
-      <c r="K100" s="3">
-        <v>200</v>
       </c>
       <c r="L100" s="3">
         <v>200</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
-      </c>
-      <c r="S100" s="3">
-        <v>200</v>
       </c>
       <c r="T100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,13 +5667,16 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5434,29 +5685,29 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K102" s="3">
         <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5464,15 +5715,18 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EXEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>EXEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -773,11 +777,11 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -808,17 +812,20 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
@@ -826,17 +833,17 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
         <v>0</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,7 +886,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -885,11 +895,11 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,55 +1231,56 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>400</v>
       </c>
       <c r="K17" s="3">
         <v>400</v>
       </c>
       <c r="L17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
-      </c>
-      <c r="R17" s="3">
-        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>300</v>
@@ -1264,8 +1291,11 @@
       <c r="U17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,47 +1303,47 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
-        <v>-300</v>
-      </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
-        <v>-300</v>
-      </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
-        <v>-300</v>
-      </c>
       <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
-        <v>-300</v>
-      </c>
       <c r="S18" s="3">
         <v>-300</v>
       </c>
@@ -1323,8 +1353,11 @@
       <c r="U18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,14 +1389,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1370,11 +1404,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1414,47 +1451,47 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
-        <v>-300</v>
-      </c>
       <c r="J21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
-        <v>-300</v>
-      </c>
       <c r="M21" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N21" s="3">
         <v>-200</v>
       </c>
       <c r="O21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
-        <v>-300</v>
-      </c>
       <c r="S21" s="3">
         <v>-300</v>
       </c>
@@ -1464,8 +1501,11 @@
       <c r="U21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,56 +1563,59 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
-        <v>-300</v>
-      </c>
       <c r="F23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
-        <v>-300</v>
-      </c>
       <c r="J23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
-        <v>-300</v>
-      </c>
       <c r="M23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
-        <v>-300</v>
-      </c>
       <c r="S23" s="3">
         <v>-300</v>
       </c>
@@ -1582,8 +1625,11 @@
       <c r="U23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,56 +1749,59 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
-        <v>-300</v>
-      </c>
       <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
-        <v>-300</v>
-      </c>
       <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
-        <v>-300</v>
-      </c>
       <c r="M26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
-        <v>-300</v>
-      </c>
       <c r="S26" s="3">
         <v>-300</v>
       </c>
@@ -1759,38 +1811,41 @@
       <c r="U26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
-        <v>-300</v>
-      </c>
       <c r="K27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
-        <v>-300</v>
-      </c>
       <c r="M27" s="3">
         <v>-300</v>
       </c>
@@ -1801,25 +1856,28 @@
         <v>-300</v>
       </c>
       <c r="P27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-400</v>
       </c>
       <c r="R27" s="3">
         <v>-400</v>
       </c>
       <c r="S27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="T27" s="3">
         <v>-300</v>
       </c>
       <c r="U27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,14 +2133,14 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2078,11 +2148,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2113,38 +2183,41 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
-        <v>-300</v>
-      </c>
       <c r="K33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
-        <v>-300</v>
-      </c>
       <c r="M33" s="3">
         <v>-300</v>
       </c>
@@ -2155,25 +2228,28 @@
         <v>-300</v>
       </c>
       <c r="P33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-400</v>
       </c>
       <c r="R33" s="3">
         <v>-400</v>
       </c>
       <c r="S33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="T33" s="3">
         <v>-300</v>
       </c>
       <c r="U33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,38 +2307,41 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
-        <v>-300</v>
-      </c>
       <c r="K35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
-        <v>-300</v>
-      </c>
       <c r="M35" s="3">
         <v>-300</v>
       </c>
@@ -2273,89 +2352,95 @@
         <v>-300</v>
       </c>
       <c r="P35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-400</v>
       </c>
       <c r="R35" s="3">
         <v>-400</v>
       </c>
       <c r="S35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="T35" s="3">
         <v>-300</v>
       </c>
       <c r="U35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,16 +2486,17 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -2421,7 +2508,7 @@
         <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>200</v>
@@ -2430,37 +2517,40 @@
         <v>200</v>
       </c>
       <c r="L41" s="3">
+        <v>200</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>100</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>200</v>
       </c>
       <c r="R41" s="3">
         <v>200</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2542,11 +2635,11 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -2562,8 +2655,8 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
+      <c r="Q43" s="3">
+        <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
         <v>4</v>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2586,7 +2682,7 @@
         <v>100</v>
       </c>
       <c r="E44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>300</v>
@@ -2601,16 +2697,16 @@
         <v>300</v>
       </c>
       <c r="J44" s="3">
+        <v>300</v>
+      </c>
+      <c r="K44" s="3">
         <v>100</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
         <v>100</v>
@@ -2622,7 +2718,7 @@
         <v>100</v>
       </c>
       <c r="Q44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R44" s="3">
         <v>300</v>
@@ -2631,13 +2727,16 @@
         <v>300</v>
       </c>
       <c r="T44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2654,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -2663,16 +2762,16 @@
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2681,22 +2780,25 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2704,7 +2806,7 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>400</v>
@@ -2716,46 +2818,49 @@
         <v>400</v>
       </c>
       <c r="I46" s="3">
+        <v>400</v>
+      </c>
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>300</v>
       </c>
       <c r="M46" s="3">
         <v>300</v>
       </c>
       <c r="N46" s="3">
+        <v>300</v>
+      </c>
+      <c r="O46" s="3">
         <v>200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>300</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
       </c>
       <c r="Q46" s="3">
+        <v>300</v>
+      </c>
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
-      </c>
-      <c r="T46" s="3">
-        <v>400</v>
       </c>
       <c r="U46" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2822,7 +2930,7 @@
         <v>200</v>
       </c>
       <c r="E48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F48" s="3">
         <v>100</v>
@@ -2831,7 +2939,7 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>200</v>
@@ -2840,11 +2948,11 @@
         <v>200</v>
       </c>
       <c r="K48" s="3">
+        <v>200</v>
+      </c>
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
@@ -2864,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
@@ -2872,16 +2980,19 @@
       <c r="U48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>0</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>0</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
@@ -2898,8 +3009,8 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,13 +3290,16 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E54" s="3">
         <v>500</v>
@@ -3185,49 +3311,52 @@
         <v>500</v>
       </c>
       <c r="H54" s="3">
+        <v>500</v>
+      </c>
+      <c r="I54" s="3">
         <v>600</v>
-      </c>
-      <c r="I54" s="3">
-        <v>800</v>
       </c>
       <c r="J54" s="3">
         <v>800</v>
       </c>
       <c r="K54" s="3">
+        <v>800</v>
+      </c>
+      <c r="L54" s="3">
         <v>500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>300</v>
       </c>
       <c r="M54" s="3">
         <v>300</v>
       </c>
       <c r="N54" s="3">
+        <v>300</v>
+      </c>
+      <c r="O54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>400</v>
-      </c>
-      <c r="T54" s="3">
-        <v>500</v>
       </c>
       <c r="U54" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,16 +3402,17 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
@@ -3296,7 +3427,7 @@
         <v>100</v>
       </c>
       <c r="J57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,126 +3524,135 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1900</v>
       </c>
       <c r="G59" s="3">
         <v>1900</v>
       </c>
       <c r="H59" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="I59" s="3">
         <v>1800</v>
       </c>
       <c r="J59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1300</v>
       </c>
       <c r="N59" s="3">
         <v>1300</v>
       </c>
       <c r="O59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
-      </c>
-      <c r="T59" s="3">
-        <v>700</v>
       </c>
       <c r="U59" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1900</v>
       </c>
       <c r="H60" s="3">
         <v>1900</v>
       </c>
       <c r="I60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J60" s="3">
         <v>1800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1400</v>
       </c>
       <c r="M60" s="3">
         <v>1400</v>
       </c>
       <c r="N60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1100</v>
       </c>
       <c r="Q60" s="3">
         <v>1100</v>
       </c>
       <c r="R60" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="S60" s="3">
         <v>900</v>
       </c>
       <c r="T60" s="3">
+        <v>900</v>
+      </c>
+      <c r="U60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3576,7 +3722,7 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
@@ -3591,11 +3737,11 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>100</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>2000</v>
       </c>
       <c r="G66" s="3">
         <v>2000</v>
       </c>
       <c r="H66" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I66" s="3">
         <v>1900</v>
       </c>
       <c r="J66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1800</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1500</v>
       </c>
       <c r="L66" s="3">
         <v>1500</v>
       </c>
       <c r="M66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N66" s="3">
         <v>1400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1200</v>
       </c>
       <c r="P66" s="3">
         <v>1200</v>
       </c>
       <c r="Q66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4012,16 +4180,16 @@
         <v>2100</v>
       </c>
       <c r="E70" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F70" s="3">
         <v>2000</v>
-      </c>
-      <c r="F70" s="3">
-        <v>2100</v>
       </c>
       <c r="G70" s="3">
         <v>2100</v>
       </c>
       <c r="H70" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="I70" s="3">
         <v>2000</v>
@@ -4030,13 +4198,13 @@
         <v>2000</v>
       </c>
       <c r="K70" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L70" s="3">
         <v>1900</v>
       </c>
       <c r="M70" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="N70" s="3">
         <v>1800</v>
@@ -4045,13 +4213,13 @@
         <v>1800</v>
       </c>
       <c r="P70" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="Q70" s="3">
         <v>1700</v>
       </c>
       <c r="R70" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="S70" s="3">
         <v>1600</v>
@@ -4060,10 +4228,13 @@
         <v>1600</v>
       </c>
       <c r="U70" s="3">
+        <v>1600</v>
+      </c>
+      <c r="V70" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-9600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-7700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,31 +4540,34 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-3000</v>
       </c>
       <c r="K76" s="3">
         <v>-3000</v>
@@ -4390,19 +4576,19 @@
         <v>-3000</v>
       </c>
       <c r="M76" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="N76" s="3">
         <v>-2900</v>
       </c>
       <c r="O76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="P76" s="3">
         <v>-2700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2500</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-2100</v>
       </c>
       <c r="R76" s="3">
         <v>-2100</v>
@@ -4411,13 +4597,16 @@
         <v>-2100</v>
       </c>
       <c r="T76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="U76" s="3">
         <v>-1900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,102 +4664,108 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
-        <v>-300</v>
-      </c>
       <c r="K81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
-        <v>-300</v>
-      </c>
       <c r="M81" s="3">
         <v>-300</v>
       </c>
@@ -4581,25 +4776,28 @@
         <v>-300</v>
       </c>
       <c r="P81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-400</v>
       </c>
       <c r="R81" s="3">
         <v>-400</v>
       </c>
       <c r="S81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="T81" s="3">
         <v>-300</v>
       </c>
       <c r="U81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4987,34 +5204,34 @@
         <v>-200</v>
       </c>
       <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
-        <v>-300</v>
-      </c>
       <c r="H89" s="3">
         <v>-300</v>
       </c>
       <c r="I89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>-300</v>
-      </c>
       <c r="K89" s="3">
         <v>-300</v>
       </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,13 +5277,14 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -5086,8 +5307,8 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
@@ -5098,8 +5319,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5107,17 +5328,20 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5284,17 +5514,20 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>200</v>
       </c>
       <c r="F100" s="3">
+        <v>200</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
-      </c>
-      <c r="H100" s="3">
-        <v>200</v>
       </c>
       <c r="I100" s="3">
         <v>200</v>
       </c>
       <c r="J100" s="3">
+        <v>200</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
-      </c>
-      <c r="L100" s="3">
-        <v>200</v>
       </c>
       <c r="M100" s="3">
         <v>200</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
-      </c>
-      <c r="T100" s="3">
-        <v>200</v>
       </c>
       <c r="U100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,17 +5919,20 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -5688,29 +5940,29 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L102" s="3">
         <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5718,15 +5970,18 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EXEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>EXEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42704</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -780,11 +784,11 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -824,11 +831,11 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
         <v>0</v>
       </c>
@@ -836,17 +843,17 @@
         <v>0</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
         <v>0</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,11 +896,11 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>-200</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
@@ -898,11 +908,11 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,58 +1258,59 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
-        <v>600</v>
-      </c>
       <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
-      </c>
-      <c r="K17" s="3">
-        <v>400</v>
       </c>
       <c r="L17" s="3">
         <v>400</v>
       </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>300</v>
       </c>
       <c r="T17" s="3">
         <v>300</v>
@@ -1294,8 +1321,11 @@
       <c r="V17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,50 +1333,50 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
-        <v>-300</v>
-      </c>
       <c r="G18" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
-        <v>-300</v>
-      </c>
       <c r="K18" s="3">
         <v>-300</v>
       </c>
       <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
-        <v>-300</v>
-      </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
-        <v>-300</v>
-      </c>
       <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
-        <v>-300</v>
-      </c>
       <c r="T18" s="3">
         <v>-300</v>
       </c>
@@ -1356,8 +1386,11 @@
       <c r="V18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1392,26 +1426,26 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,50 +1488,50 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
-        <v>-300</v>
-      </c>
       <c r="G21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-300</v>
-      </c>
       <c r="N21" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O21" s="3">
         <v>-200</v>
       </c>
       <c r="P21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
-        <v>-300</v>
-      </c>
       <c r="T21" s="3">
         <v>-300</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,59 +1606,62 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
-        <v>-300</v>
-      </c>
       <c r="G23" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
-        <v>-300</v>
-      </c>
       <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
-        <v>-300</v>
-      </c>
       <c r="N23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
       <c r="P23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
-        <v>-300</v>
-      </c>
       <c r="T23" s="3">
         <v>-300</v>
       </c>
@@ -1628,8 +1671,11 @@
       <c r="V23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,59 +1801,62 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
-        <v>-300</v>
-      </c>
       <c r="G26" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
-        <v>-300</v>
-      </c>
       <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
-        <v>-300</v>
-      </c>
       <c r="N26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O26" s="3">
         <v>-200</v>
       </c>
       <c r="P26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
-        <v>-300</v>
-      </c>
       <c r="T26" s="3">
         <v>-300</v>
       </c>
@@ -1814,41 +1866,44 @@
       <c r="V26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
-        <v>-700</v>
-      </c>
       <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
-        <v>-300</v>
-      </c>
       <c r="L27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
-        <v>-300</v>
-      </c>
       <c r="N27" s="3">
         <v>-300</v>
       </c>
@@ -1859,25 +1914,28 @@
         <v>-300</v>
       </c>
       <c r="Q27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R27" s="3">
         <v>-500</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-400</v>
       </c>
       <c r="S27" s="3">
         <v>-400</v>
       </c>
       <c r="T27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="U27" s="3">
         <v>-300</v>
       </c>
       <c r="V27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2136,26 +2206,26 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2186,41 +2256,44 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
-        <v>-700</v>
-      </c>
       <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
-        <v>-300</v>
-      </c>
       <c r="L33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
-        <v>-300</v>
-      </c>
       <c r="N33" s="3">
         <v>-300</v>
       </c>
@@ -2231,25 +2304,28 @@
         <v>-300</v>
       </c>
       <c r="Q33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R33" s="3">
         <v>-500</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-400</v>
       </c>
       <c r="S33" s="3">
         <v>-400</v>
       </c>
       <c r="T33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="U33" s="3">
         <v>-300</v>
       </c>
       <c r="V33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,41 +2386,44 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
-        <v>-700</v>
-      </c>
       <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
-        <v>-300</v>
-      </c>
       <c r="L35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
-        <v>-300</v>
-      </c>
       <c r="N35" s="3">
         <v>-300</v>
       </c>
@@ -2355,92 +2434,98 @@
         <v>-300</v>
       </c>
       <c r="Q35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R35" s="3">
         <v>-500</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-400</v>
       </c>
       <c r="S35" s="3">
         <v>-400</v>
       </c>
       <c r="T35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="U35" s="3">
         <v>-300</v>
       </c>
       <c r="V35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42704</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,19 +2573,20 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -2511,7 +2598,7 @@
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>200</v>
@@ -2520,37 +2607,40 @@
         <v>200</v>
       </c>
       <c r="M41" s="3">
+        <v>200</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>100</v>
-      </c>
-      <c r="R41" s="3">
-        <v>200</v>
       </c>
       <c r="S41" s="3">
         <v>200</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
       </c>
       <c r="V41" s="3">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2638,11 +2731,11 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
       <c r="M43" s="3">
         <v>0</v>
       </c>
@@ -2658,8 +2751,8 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>4</v>
@@ -2673,19 +2766,22 @@
       <c r="V43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>300</v>
@@ -2700,16 +2796,16 @@
         <v>300</v>
       </c>
       <c r="K44" s="3">
+        <v>300</v>
+      </c>
+      <c r="L44" s="3">
         <v>100</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
       <c r="N44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>100</v>
@@ -2721,7 +2817,7 @@
         <v>100</v>
       </c>
       <c r="R44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="S44" s="3">
         <v>300</v>
@@ -2730,13 +2826,16 @@
         <v>300</v>
       </c>
       <c r="U44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2756,7 +2855,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2765,16 +2864,16 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2783,33 +2882,36 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
         <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>400</v>
@@ -2821,46 +2923,49 @@
         <v>400</v>
       </c>
       <c r="J46" s="3">
+        <v>400</v>
+      </c>
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
-      </c>
-      <c r="M46" s="3">
-        <v>300</v>
       </c>
       <c r="N46" s="3">
         <v>300</v>
       </c>
       <c r="O46" s="3">
+        <v>300</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
-      </c>
-      <c r="P46" s="3">
-        <v>300</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
       </c>
       <c r="R46" s="3">
+        <v>300</v>
+      </c>
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
-      </c>
-      <c r="U46" s="3">
-        <v>400</v>
       </c>
       <c r="V46" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2933,7 +3041,7 @@
         <v>200</v>
       </c>
       <c r="F48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G48" s="3">
         <v>100</v>
@@ -2942,7 +3050,7 @@
         <v>100</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J48" s="3">
         <v>200</v>
@@ -2951,11 +3059,11 @@
         <v>200</v>
       </c>
       <c r="L48" s="3">
+        <v>200</v>
+      </c>
+      <c r="M48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
@@ -2975,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
         <v>100</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2994,8 +3105,8 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="F49" s="3">
+        <v>0</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -3012,8 +3123,8 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,16 +3416,19 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>300</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
-      </c>
-      <c r="E54" s="3">
-        <v>500</v>
       </c>
       <c r="F54" s="3">
         <v>500</v>
@@ -3314,49 +3440,52 @@
         <v>500</v>
       </c>
       <c r="I54" s="3">
+        <v>500</v>
+      </c>
+      <c r="J54" s="3">
         <v>600</v>
-      </c>
-      <c r="J54" s="3">
-        <v>800</v>
       </c>
       <c r="K54" s="3">
         <v>800</v>
       </c>
       <c r="L54" s="3">
+        <v>800</v>
+      </c>
+      <c r="M54" s="3">
         <v>500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>300</v>
       </c>
       <c r="N54" s="3">
         <v>300</v>
       </c>
       <c r="O54" s="3">
+        <v>300</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>400</v>
-      </c>
-      <c r="U54" s="3">
-        <v>500</v>
       </c>
       <c r="V54" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,19 +3533,20 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>200</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -3430,7 +3561,7 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,132 +3661,141 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1900</v>
       </c>
       <c r="H59" s="3">
         <v>1900</v>
       </c>
       <c r="I59" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J59" s="3">
         <v>1800</v>
       </c>
       <c r="K59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1300</v>
       </c>
       <c r="O59" s="3">
         <v>1300</v>
       </c>
       <c r="P59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>800</v>
-      </c>
-      <c r="U59" s="3">
-        <v>700</v>
       </c>
       <c r="V59" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1900</v>
       </c>
       <c r="I60" s="3">
         <v>1900</v>
       </c>
       <c r="J60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1400</v>
       </c>
       <c r="N60" s="3">
         <v>1400</v>
       </c>
       <c r="O60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1100</v>
       </c>
       <c r="R60" s="3">
         <v>1100</v>
       </c>
       <c r="S60" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="T60" s="3">
         <v>900</v>
       </c>
       <c r="U60" s="3">
+        <v>900</v>
+      </c>
+      <c r="V60" s="3">
         <v>800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,19 +3856,22 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
@@ -3740,11 +3886,11 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2100</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2000</v>
       </c>
       <c r="H66" s="3">
         <v>2000</v>
       </c>
       <c r="I66" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J66" s="3">
         <v>1900</v>
       </c>
       <c r="K66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L66" s="3">
         <v>1800</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1500</v>
       </c>
       <c r="M66" s="3">
         <v>1500</v>
       </c>
       <c r="N66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O66" s="3">
         <v>1400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1200</v>
       </c>
       <c r="Q66" s="3">
         <v>1200</v>
       </c>
       <c r="R66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4183,16 +4351,16 @@
         <v>2100</v>
       </c>
       <c r="F70" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G70" s="3">
         <v>2000</v>
-      </c>
-      <c r="G70" s="3">
-        <v>2100</v>
       </c>
       <c r="H70" s="3">
         <v>2100</v>
       </c>
       <c r="I70" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J70" s="3">
         <v>2000</v>
@@ -4201,13 +4369,13 @@
         <v>2000</v>
       </c>
       <c r="L70" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M70" s="3">
         <v>1900</v>
       </c>
       <c r="N70" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="O70" s="3">
         <v>1800</v>
@@ -4216,13 +4384,13 @@
         <v>1800</v>
       </c>
       <c r="Q70" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="R70" s="3">
         <v>1700</v>
       </c>
       <c r="S70" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="T70" s="3">
         <v>1600</v>
@@ -4231,10 +4399,13 @@
         <v>1600</v>
       </c>
       <c r="V70" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W70" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-11900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-9600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-6100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-5700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,34 +4726,37 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-3000</v>
       </c>
       <c r="L76" s="3">
         <v>-3000</v>
@@ -4579,19 +4765,19 @@
         <v>-3000</v>
       </c>
       <c r="N76" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="O76" s="3">
         <v>-2900</v>
       </c>
       <c r="P76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2500</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-2100</v>
       </c>
       <c r="S76" s="3">
         <v>-2100</v>
@@ -4600,13 +4786,16 @@
         <v>-2100</v>
       </c>
       <c r="U76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="V76" s="3">
         <v>-1900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,108 +4856,114 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="E80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42704</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
-        <v>-700</v>
-      </c>
       <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
-        <v>-300</v>
-      </c>
       <c r="L81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
-        <v>-300</v>
-      </c>
       <c r="N81" s="3">
         <v>-300</v>
       </c>
@@ -4779,25 +4974,28 @@
         <v>-300</v>
       </c>
       <c r="Q81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R81" s="3">
         <v>-500</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-400</v>
       </c>
       <c r="S81" s="3">
         <v>-400</v>
       </c>
       <c r="T81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="U81" s="3">
         <v>-300</v>
       </c>
       <c r="V81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,13 +5406,16 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
@@ -5207,34 +5424,34 @@
         <v>-200</v>
       </c>
       <c r="G89" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="H89" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-300</v>
       </c>
       <c r="J89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>-300</v>
-      </c>
       <c r="L89" s="3">
         <v>-300</v>
       </c>
       <c r="M89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,16 +5498,17 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -5310,8 +5531,8 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
@@ -5322,8 +5543,8 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -5331,17 +5552,20 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5517,17 +5747,20 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5807,61 +6053,64 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
         <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
-      </c>
-      <c r="I100" s="3">
-        <v>200</v>
       </c>
       <c r="J100" s="3">
         <v>200</v>
       </c>
       <c r="K100" s="3">
+        <v>200</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
-      </c>
-      <c r="M100" s="3">
-        <v>200</v>
       </c>
       <c r="N100" s="3">
         <v>200</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
-      </c>
-      <c r="U100" s="3">
-        <v>200</v>
       </c>
       <c r="V100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5931,11 +6183,11 @@
         <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -5943,29 +6195,29 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M102" s="3">
         <v>100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5973,15 +6225,18 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EXEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>EXEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
         <v>44347</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42704</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -787,11 +791,11 @@
         <v>0</v>
       </c>
       <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
@@ -822,8 +826,11 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -834,11 +841,11 @@
         <v>0</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
@@ -846,17 +853,17 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
         <v>0</v>
       </c>
@@ -887,8 +894,11 @@
       <c r="W9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -899,11 +909,11 @@
         <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-200</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
@@ -911,11 +921,11 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
@@ -952,8 +962,11 @@
       <c r="W10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,61 +1285,62 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>400</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
       </c>
       <c r="N17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
-      </c>
-      <c r="T17" s="3">
-        <v>300</v>
       </c>
       <c r="U17" s="3">
         <v>300</v>
@@ -1324,8 +1351,11 @@
       <c r="W17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,53 +1363,53 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
-        <v>-300</v>
-      </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
-        <v>-300</v>
-      </c>
       <c r="L18" s="3">
         <v>-300</v>
       </c>
       <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
-        <v>-300</v>
-      </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
-        <v>-300</v>
-      </c>
       <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
-        <v>-300</v>
-      </c>
       <c r="U18" s="3">
         <v>-300</v>
       </c>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,17 +1457,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1444,11 +1478,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1488,53 +1525,53 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
-        <v>-300</v>
-      </c>
       <c r="H21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
-        <v>-300</v>
-      </c>
       <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
-        <v>-300</v>
-      </c>
       <c r="O21" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P21" s="3">
         <v>-200</v>
       </c>
       <c r="Q21" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="T21" s="3">
-        <v>-300</v>
-      </c>
       <c r="U21" s="3">
         <v>-300</v>
       </c>
@@ -1544,13 +1581,16 @@
       <c r="W21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1609,62 +1649,65 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-300</v>
-      </c>
       <c r="H23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
-        <v>-300</v>
-      </c>
       <c r="L23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
-        <v>-300</v>
-      </c>
       <c r="O23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P23" s="3">
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
-        <v>-300</v>
-      </c>
       <c r="U23" s="3">
         <v>-300</v>
       </c>
@@ -1674,8 +1717,11 @@
       <c r="W23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,62 +1853,65 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
-        <v>-300</v>
-      </c>
       <c r="H26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
-        <v>-300</v>
-      </c>
       <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
-        <v>-300</v>
-      </c>
       <c r="O26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
-        <v>-300</v>
-      </c>
       <c r="U26" s="3">
         <v>-300</v>
       </c>
@@ -1869,44 +1921,47 @@
       <c r="W26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
-        <v>-300</v>
-      </c>
       <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
-        <v>-300</v>
-      </c>
       <c r="O27" s="3">
         <v>-300</v>
       </c>
@@ -1917,25 +1972,28 @@
         <v>-300</v>
       </c>
       <c r="R27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S27" s="3">
         <v>-500</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-400</v>
       </c>
       <c r="T27" s="3">
         <v>-400</v>
       </c>
       <c r="U27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="V27" s="3">
         <v>-300</v>
       </c>
       <c r="W27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,17 +2273,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2224,11 +2294,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2259,44 +2329,47 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
-        <v>-300</v>
-      </c>
       <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
-        <v>-300</v>
-      </c>
       <c r="O33" s="3">
         <v>-300</v>
       </c>
@@ -2307,25 +2380,28 @@
         <v>-300</v>
       </c>
       <c r="R33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S33" s="3">
         <v>-500</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-400</v>
       </c>
       <c r="T33" s="3">
         <v>-400</v>
       </c>
       <c r="U33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="V33" s="3">
         <v>-300</v>
       </c>
       <c r="W33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,44 +2465,47 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
-        <v>-300</v>
-      </c>
       <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
-        <v>-300</v>
-      </c>
       <c r="O35" s="3">
         <v>-300</v>
       </c>
@@ -2437,95 +2516,101 @@
         <v>-300</v>
       </c>
       <c r="R35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S35" s="3">
         <v>-500</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-400</v>
       </c>
       <c r="T35" s="3">
         <v>-400</v>
       </c>
       <c r="U35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="V35" s="3">
         <v>-300</v>
       </c>
       <c r="W35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
         <v>44347</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42704</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,22 +2660,23 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>200</v>
-      </c>
-      <c r="G41" s="3">
-        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -2601,7 +2688,7 @@
         <v>100</v>
       </c>
       <c r="K41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
@@ -2610,37 +2697,40 @@
         <v>200</v>
       </c>
       <c r="N41" s="3">
+        <v>200</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>100</v>
-      </c>
-      <c r="S41" s="3">
-        <v>200</v>
       </c>
       <c r="T41" s="3">
         <v>200</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V41" s="3">
         <v>100</v>
       </c>
       <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2794,11 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2734,11 +2827,11 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
@@ -2754,8 +2847,8 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
+      <c r="S43" s="3">
+        <v>0</v>
       </c>
       <c r="T43" s="3" t="s">
         <v>4</v>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2778,13 +2874,13 @@
         <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
         <v>100</v>
       </c>
       <c r="G44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H44" s="3">
         <v>300</v>
@@ -2799,16 +2895,16 @@
         <v>300</v>
       </c>
       <c r="L44" s="3">
+        <v>300</v>
+      </c>
+      <c r="M44" s="3">
         <v>100</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
-      </c>
       <c r="N44" s="3">
         <v>0</v>
       </c>
       <c r="O44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P44" s="3">
         <v>100</v>
@@ -2820,7 +2916,7 @@
         <v>100</v>
       </c>
       <c r="S44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="T44" s="3">
         <v>300</v>
@@ -2829,13 +2925,16 @@
         <v>300</v>
       </c>
       <c r="V44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2858,7 +2957,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2867,16 +2966,16 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2885,22 +2984,25 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
       <c r="U45" s="3">
         <v>0</v>
       </c>
       <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2908,13 +3010,13 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H46" s="3">
         <v>400</v>
@@ -2926,46 +3028,49 @@
         <v>400</v>
       </c>
       <c r="K46" s="3">
+        <v>400</v>
+      </c>
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
       </c>
       <c r="P46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>300</v>
       </c>
       <c r="R46" s="3">
         <v>300</v>
       </c>
       <c r="S46" s="3">
+        <v>300</v>
+      </c>
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
-      </c>
-      <c r="V46" s="3">
-        <v>400</v>
       </c>
       <c r="W46" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,13 +3134,16 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E48" s="3">
         <v>200</v>
@@ -3044,7 +3152,7 @@
         <v>200</v>
       </c>
       <c r="G48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H48" s="3">
         <v>100</v>
@@ -3053,7 +3161,7 @@
         <v>100</v>
       </c>
       <c r="J48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>200</v>
@@ -3062,11 +3170,11 @@
         <v>200</v>
       </c>
       <c r="M48" s="3">
+        <v>200</v>
+      </c>
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
@@ -3086,7 +3194,7 @@
         <v>0</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V48" s="3">
         <v>100</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3108,8 +3219,8 @@
       <c r="F49" s="3">
         <v>0</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+      <c r="G49" s="3">
+        <v>0</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -3126,8 +3237,8 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,8 +3542,11 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3428,10 +3554,10 @@
         <v>300</v>
       </c>
       <c r="E54" s="3">
+        <v>300</v>
+      </c>
+      <c r="F54" s="3">
         <v>400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>500</v>
       </c>
       <c r="G54" s="3">
         <v>500</v>
@@ -3443,49 +3569,52 @@
         <v>500</v>
       </c>
       <c r="J54" s="3">
+        <v>500</v>
+      </c>
+      <c r="K54" s="3">
         <v>600</v>
-      </c>
-      <c r="K54" s="3">
-        <v>800</v>
       </c>
       <c r="L54" s="3">
         <v>800</v>
       </c>
       <c r="M54" s="3">
+        <v>800</v>
+      </c>
+      <c r="N54" s="3">
         <v>500</v>
-      </c>
-      <c r="N54" s="3">
-        <v>300</v>
       </c>
       <c r="O54" s="3">
         <v>300</v>
       </c>
       <c r="P54" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>400</v>
-      </c>
-      <c r="V54" s="3">
-        <v>500</v>
       </c>
       <c r="W54" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3543,13 +3674,13 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -3564,7 +3695,7 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,138 +3798,147 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1900</v>
       </c>
       <c r="I59" s="3">
         <v>1900</v>
       </c>
       <c r="J59" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="K59" s="3">
         <v>1800</v>
       </c>
       <c r="L59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1300</v>
       </c>
       <c r="P59" s="3">
         <v>1300</v>
       </c>
       <c r="Q59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>800</v>
-      </c>
-      <c r="V59" s="3">
-        <v>700</v>
       </c>
       <c r="W59" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1900</v>
       </c>
       <c r="J60" s="3">
         <v>1900</v>
       </c>
       <c r="K60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L60" s="3">
         <v>1800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1500</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1400</v>
       </c>
       <c r="O60" s="3">
         <v>1400</v>
       </c>
       <c r="P60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q60" s="3">
         <v>1300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1100</v>
       </c>
       <c r="S60" s="3">
         <v>1100</v>
       </c>
       <c r="T60" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="U60" s="3">
         <v>900</v>
       </c>
       <c r="V60" s="3">
+        <v>900</v>
+      </c>
+      <c r="W60" s="3">
         <v>800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3868,13 +4014,13 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>100</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -3889,11 +4035,11 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2000</v>
       </c>
       <c r="I66" s="3">
         <v>2000</v>
       </c>
       <c r="J66" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K66" s="3">
         <v>1900</v>
       </c>
       <c r="L66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M66" s="3">
         <v>1800</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1500</v>
       </c>
       <c r="N66" s="3">
         <v>1500</v>
       </c>
       <c r="O66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P66" s="3">
         <v>1400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1200</v>
       </c>
       <c r="R66" s="3">
         <v>1200</v>
       </c>
       <c r="S66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4354,16 +4522,16 @@
         <v>2100</v>
       </c>
       <c r="G70" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H70" s="3">
         <v>2000</v>
-      </c>
-      <c r="H70" s="3">
-        <v>2100</v>
       </c>
       <c r="I70" s="3">
         <v>2100</v>
       </c>
       <c r="J70" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="K70" s="3">
         <v>2000</v>
@@ -4372,13 +4540,13 @@
         <v>2000</v>
       </c>
       <c r="M70" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="N70" s="3">
         <v>1900</v>
       </c>
       <c r="O70" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="P70" s="3">
         <v>1800</v>
@@ -4387,13 +4555,13 @@
         <v>1800</v>
       </c>
       <c r="R70" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="S70" s="3">
         <v>1700</v>
       </c>
       <c r="T70" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="U70" s="3">
         <v>1600</v>
@@ -4402,10 +4570,13 @@
         <v>1600</v>
       </c>
       <c r="W70" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X70" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-10800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-9600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-7700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-6400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-6100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,37 +4912,40 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-4900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-3000</v>
       </c>
       <c r="M76" s="3">
         <v>-3000</v>
@@ -4768,19 +4954,19 @@
         <v>-3000</v>
       </c>
       <c r="O76" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="P76" s="3">
         <v>-2900</v>
       </c>
       <c r="Q76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="R76" s="3">
         <v>-2700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2500</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-2100</v>
       </c>
       <c r="T76" s="3">
         <v>-2100</v>
@@ -4789,13 +4975,16 @@
         <v>-2100</v>
       </c>
       <c r="V76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="W76" s="3">
         <v>-1900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,114 +5048,120 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
         <v>44347</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42704</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
-        <v>-300</v>
-      </c>
       <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
-        <v>-300</v>
-      </c>
       <c r="O81" s="3">
         <v>-300</v>
       </c>
@@ -4977,25 +5172,28 @@
         <v>-300</v>
       </c>
       <c r="R81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S81" s="3">
         <v>-500</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-400</v>
       </c>
       <c r="T81" s="3">
         <v>-400</v>
       </c>
       <c r="U81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="V81" s="3">
         <v>-300</v>
       </c>
       <c r="W81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5418,7 +5635,7 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-200</v>
@@ -5427,34 +5644,34 @@
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>-300</v>
-      </c>
       <c r="J89" s="3">
         <v>-300</v>
       </c>
       <c r="K89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>-300</v>
-      </c>
       <c r="M89" s="3">
         <v>-300</v>
       </c>
       <c r="N89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>-200</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5510,8 +5731,8 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -5534,8 +5755,8 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
@@ -5546,8 +5767,8 @@
       <c r="Q91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5555,17 +5776,20 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5750,17 +5980,20 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6056,61 +6302,64 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>200</v>
       </c>
       <c r="H100" s="3">
+        <v>200</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>200</v>
       </c>
       <c r="K100" s="3">
         <v>200</v>
       </c>
       <c r="L100" s="3">
+        <v>200</v>
+      </c>
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
-      </c>
-      <c r="N100" s="3">
-        <v>200</v>
       </c>
       <c r="O100" s="3">
         <v>200</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
-      </c>
-      <c r="V100" s="3">
-        <v>200</v>
       </c>
       <c r="W100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,23 +6423,26 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
         <v>-100</v>
       </c>
       <c r="F102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -6198,29 +6450,29 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -6228,15 +6480,18 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EXEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>EXEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42704</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -794,11 +797,11 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -844,11 +850,11 @@
         <v>0</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
@@ -856,17 +862,17 @@
         <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
       <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
       <c r="O9" s="3">
         <v>0</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,11 +921,11 @@
         <v>0</v>
       </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>-200</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
@@ -924,11 +933,11 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
         <v>0</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,55 +1321,55 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>400</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
       </c>
       <c r="O17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>300</v>
       </c>
       <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
-      </c>
-      <c r="U17" s="3">
-        <v>300</v>
       </c>
       <c r="V17" s="3">
         <v>300</v>
@@ -1354,8 +1380,11 @@
       <c r="X17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,55 +1392,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
       </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-300</v>
       </c>
       <c r="P18" s="3">
         <v>-300</v>
       </c>
       <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-300</v>
       </c>
       <c r="V18" s="3">
         <v>-300</v>
@@ -1422,8 +1451,11 @@
       <c r="X18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1457,20 +1490,20 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1481,11 +1514,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1516,8 +1549,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1525,55 +1561,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-200</v>
       </c>
       <c r="Q21" s="3">
         <v>-200</v>
       </c>
       <c r="R21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-300</v>
       </c>
       <c r="V21" s="3">
         <v>-300</v>
@@ -1584,17 +1620,20 @@
       <c r="X21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
@@ -1652,64 +1691,67 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-200</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
       </c>
       <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-400</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-300</v>
       </c>
       <c r="V23" s="3">
         <v>-300</v>
@@ -1720,8 +1762,11 @@
       <c r="X23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,64 +1904,67 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
       </c>
       <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-400</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-300</v>
       </c>
       <c r="V26" s="3">
         <v>-300</v>
@@ -1924,46 +1975,49 @@
       <c r="X26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-300</v>
       </c>
       <c r="P27" s="3">
         <v>-300</v>
@@ -1975,25 +2029,28 @@
         <v>-300</v>
       </c>
       <c r="S27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T27" s="3">
         <v>-500</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-400</v>
       </c>
       <c r="U27" s="3">
         <v>-400</v>
       </c>
       <c r="V27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="W27" s="3">
         <v>-300</v>
       </c>
       <c r="X27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,20 +2342,20 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2297,11 +2366,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2332,46 +2401,49 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-300</v>
       </c>
       <c r="P33" s="3">
         <v>-300</v>
@@ -2383,25 +2455,28 @@
         <v>-300</v>
       </c>
       <c r="S33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T33" s="3">
         <v>-500</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-400</v>
       </c>
       <c r="U33" s="3">
         <v>-400</v>
       </c>
       <c r="V33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="W33" s="3">
         <v>-300</v>
       </c>
       <c r="X33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,46 +2543,49 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-300</v>
       </c>
       <c r="P35" s="3">
         <v>-300</v>
@@ -2519,98 +2597,104 @@
         <v>-300</v>
       </c>
       <c r="S35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T35" s="3">
         <v>-500</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-400</v>
       </c>
       <c r="U35" s="3">
         <v>-400</v>
       </c>
       <c r="V35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="W35" s="3">
         <v>-300</v>
       </c>
       <c r="X35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42704</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,25 +2746,26 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -2691,7 +2777,7 @@
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
@@ -2700,37 +2786,40 @@
         <v>200</v>
       </c>
       <c r="O41" s="3">
+        <v>200</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>100</v>
-      </c>
-      <c r="T41" s="3">
-        <v>200</v>
       </c>
       <c r="U41" s="3">
         <v>200</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W41" s="3">
         <v>100</v>
       </c>
       <c r="X41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2830,11 +2922,11 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
@@ -2850,8 +2942,8 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
+      <c r="T43" s="3">
+        <v>0</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>4</v>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2877,13 +2972,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>100</v>
       </c>
       <c r="H44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="I44" s="3">
         <v>300</v>
@@ -2898,16 +2993,16 @@
         <v>300</v>
       </c>
       <c r="M44" s="3">
+        <v>300</v>
+      </c>
+      <c r="N44" s="3">
         <v>100</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
       <c r="P44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="3">
         <v>100</v>
@@ -2919,7 +3014,7 @@
         <v>100</v>
       </c>
       <c r="T44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="U44" s="3">
         <v>300</v>
@@ -2928,13 +3023,16 @@
         <v>300</v>
       </c>
       <c r="W44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2960,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2969,16 +3067,16 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -2987,22 +3085,25 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
+        <v>100</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
       <c r="V45" s="3">
         <v>0</v>
       </c>
       <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
         <v>100</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3013,13 +3114,13 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I46" s="3">
         <v>400</v>
@@ -3031,46 +3132,49 @@
         <v>400</v>
       </c>
       <c r="L46" s="3">
+        <v>400</v>
+      </c>
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
-      </c>
-      <c r="O46" s="3">
-        <v>300</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
       </c>
       <c r="Q46" s="3">
+        <v>300</v>
+      </c>
+      <c r="R46" s="3">
         <v>200</v>
-      </c>
-      <c r="R46" s="3">
-        <v>300</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
       </c>
       <c r="T46" s="3">
+        <v>300</v>
+      </c>
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>300</v>
-      </c>
-      <c r="W46" s="3">
-        <v>400</v>
       </c>
       <c r="X46" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,7 +3253,7 @@
         <v>100</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F48" s="3">
         <v>200</v>
@@ -3155,7 +3262,7 @@
         <v>200</v>
       </c>
       <c r="H48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I48" s="3">
         <v>100</v>
@@ -3164,7 +3271,7 @@
         <v>100</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L48" s="3">
         <v>200</v>
@@ -3173,11 +3280,11 @@
         <v>200</v>
       </c>
       <c r="N48" s="3">
+        <v>200</v>
+      </c>
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
@@ -3197,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W48" s="3">
         <v>100</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3222,8 +3332,8 @@
       <c r="G49" s="3">
         <v>0</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
@@ -3240,8 +3350,8 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,22 +3667,25 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>300</v>
       </c>
       <c r="F54" s="3">
+        <v>300</v>
+      </c>
+      <c r="G54" s="3">
         <v>400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>500</v>
       </c>
       <c r="H54" s="3">
         <v>500</v>
@@ -3572,49 +3697,52 @@
         <v>500</v>
       </c>
       <c r="K54" s="3">
+        <v>500</v>
+      </c>
+      <c r="L54" s="3">
         <v>600</v>
-      </c>
-      <c r="L54" s="3">
-        <v>800</v>
       </c>
       <c r="M54" s="3">
         <v>800</v>
       </c>
       <c r="N54" s="3">
+        <v>800</v>
+      </c>
+      <c r="O54" s="3">
         <v>500</v>
-      </c>
-      <c r="O54" s="3">
-        <v>300</v>
       </c>
       <c r="P54" s="3">
         <v>300</v>
       </c>
       <c r="Q54" s="3">
+        <v>300</v>
+      </c>
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>400</v>
-      </c>
-      <c r="W54" s="3">
-        <v>500</v>
       </c>
       <c r="X54" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,25 +3794,26 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -3698,7 +3828,7 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -3733,8 +3863,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,144 +3934,153 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1900</v>
       </c>
       <c r="J59" s="3">
         <v>1900</v>
       </c>
       <c r="K59" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="L59" s="3">
         <v>1800</v>
       </c>
       <c r="M59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1300</v>
       </c>
       <c r="Q59" s="3">
         <v>1300</v>
       </c>
       <c r="R59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>800</v>
-      </c>
-      <c r="W59" s="3">
-        <v>700</v>
       </c>
       <c r="X59" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="3">
         <v>3200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1900</v>
       </c>
       <c r="K60" s="3">
         <v>1900</v>
       </c>
       <c r="L60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M60" s="3">
         <v>1800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1400</v>
       </c>
       <c r="P60" s="3">
         <v>1400</v>
       </c>
       <c r="Q60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1200</v>
-      </c>
-      <c r="S60" s="3">
-        <v>1100</v>
       </c>
       <c r="T60" s="3">
         <v>1100</v>
       </c>
       <c r="U60" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="V60" s="3">
         <v>900</v>
       </c>
       <c r="W60" s="3">
+        <v>900</v>
+      </c>
+      <c r="X60" s="3">
         <v>800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4017,13 +4162,13 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
@@ -4038,11 +4183,11 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E66" s="3">
         <v>3200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2100</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2000</v>
       </c>
       <c r="J66" s="3">
         <v>2000</v>
       </c>
       <c r="K66" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="L66" s="3">
         <v>1900</v>
       </c>
       <c r="M66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N66" s="3">
         <v>1800</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1500</v>
       </c>
       <c r="O66" s="3">
         <v>1500</v>
       </c>
       <c r="P66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1200</v>
       </c>
       <c r="S66" s="3">
         <v>1200</v>
       </c>
       <c r="T66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,13 +4671,16 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E70" s="3">
         <v>2100</v>
@@ -4525,16 +4692,16 @@
         <v>2100</v>
       </c>
       <c r="H70" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I70" s="3">
         <v>2000</v>
-      </c>
-      <c r="I70" s="3">
-        <v>2100</v>
       </c>
       <c r="J70" s="3">
         <v>2100</v>
       </c>
       <c r="K70" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="L70" s="3">
         <v>2000</v>
@@ -4543,13 +4710,13 @@
         <v>2000</v>
       </c>
       <c r="N70" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="O70" s="3">
         <v>1900</v>
       </c>
       <c r="P70" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="Q70" s="3">
         <v>1800</v>
@@ -4558,13 +4725,13 @@
         <v>1800</v>
       </c>
       <c r="S70" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="T70" s="3">
         <v>1700</v>
       </c>
       <c r="U70" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="V70" s="3">
         <v>1600</v>
@@ -4573,10 +4740,13 @@
         <v>1600</v>
       </c>
       <c r="X70" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Y70" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-11900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-10800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-9600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-7700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-6900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-6400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-6100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,40 +5097,43 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-4900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-3000</v>
       </c>
       <c r="N76" s="3">
         <v>-3000</v>
@@ -4957,19 +5142,19 @@
         <v>-3000</v>
       </c>
       <c r="P76" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="Q76" s="3">
         <v>-2900</v>
       </c>
       <c r="R76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="S76" s="3">
         <v>-2700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2500</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-2100</v>
       </c>
       <c r="U76" s="3">
         <v>-2100</v>
@@ -4978,13 +5163,16 @@
         <v>-2100</v>
       </c>
       <c r="W76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="X76" s="3">
         <v>-1900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,119 +5239,125 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42704</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-300</v>
       </c>
       <c r="P81" s="3">
         <v>-300</v>
@@ -5175,25 +5369,28 @@
         <v>-300</v>
       </c>
       <c r="S81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T81" s="3">
         <v>-500</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-400</v>
       </c>
       <c r="U81" s="3">
         <v>-400</v>
       </c>
       <c r="V81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="W81" s="3">
         <v>-300</v>
       </c>
       <c r="X81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5638,7 +5854,7 @@
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
@@ -5647,34 +5863,34 @@
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-300</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
       </c>
       <c r="L89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-300</v>
       </c>
       <c r="N89" s="3">
         <v>-300</v>
       </c>
       <c r="O89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-200</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5734,8 +5954,8 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -5758,8 +5978,8 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
@@ -5770,8 +5990,8 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5779,17 +5999,20 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3" t="s">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5983,17 +6212,20 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-      <c r="V94" s="3" t="s">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,13 +6532,16 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -6305,61 +6550,64 @@
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>200</v>
       </c>
       <c r="I100" s="3">
+        <v>200</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
-      </c>
-      <c r="K100" s="3">
-        <v>200</v>
       </c>
       <c r="L100" s="3">
         <v>200</v>
       </c>
       <c r="M100" s="3">
+        <v>200</v>
+      </c>
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
-      </c>
-      <c r="O100" s="3">
-        <v>200</v>
       </c>
       <c r="P100" s="3">
         <v>200</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
-      </c>
-      <c r="W100" s="3">
-        <v>200</v>
       </c>
       <c r="X100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,26 +6674,29 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
       </c>
       <c r="G102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -6453,29 +6704,29 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -6483,15 +6734,18 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EXEO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EXEO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>EXEO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43251</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43159</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43069</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42978</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42886</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42794</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42704</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -800,11 +804,11 @@
         <v>0</v>
       </c>
       <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
@@ -835,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -853,11 +860,11 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
@@ -865,17 +872,17 @@
         <v>0</v>
       </c>
       <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
       <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
         <v>0</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,11 +934,11 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-200</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
@@ -936,11 +946,11 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,8 +1338,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1324,55 +1351,55 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>400</v>
       </c>
       <c r="O17" s="3">
         <v>400</v>
       </c>
       <c r="P17" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>300</v>
       </c>
       <c r="R17" s="3">
+        <v>300</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
-      </c>
-      <c r="V17" s="3">
-        <v>300</v>
       </c>
       <c r="W17" s="3">
         <v>300</v>
@@ -1383,8 +1410,11 @@
       <c r="Y17" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1395,55 +1425,55 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-300</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
         <v>-400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-300</v>
       </c>
       <c r="Q18" s="3">
         <v>-300</v>
       </c>
       <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
-      </c>
-      <c r="V18" s="3">
-        <v>-300</v>
       </c>
       <c r="W18" s="3">
         <v>-300</v>
@@ -1454,8 +1484,11 @@
       <c r="Y18" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1490,23 +1524,23 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1517,11 +1551,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1552,8 +1586,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,58 +1598,58 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
       </c>
       <c r="R21" s="3">
         <v>-200</v>
       </c>
       <c r="S21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-300</v>
       </c>
       <c r="W21" s="3">
         <v>-300</v>
@@ -1623,8 +1660,11 @@
       <c r="Y21" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1632,11 +1672,11 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1694,67 +1734,70 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
       <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-300</v>
       </c>
       <c r="W23" s="3">
         <v>-300</v>
@@ -1765,8 +1808,11 @@
       <c r="Y23" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,67 +1956,70 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
       </c>
       <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-300</v>
       </c>
       <c r="W26" s="3">
         <v>-300</v>
@@ -1978,49 +2030,52 @@
       <c r="Y26" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-300</v>
       </c>
       <c r="Q27" s="3">
         <v>-300</v>
@@ -2032,25 +2087,28 @@
         <v>-300</v>
       </c>
       <c r="T27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U27" s="3">
         <v>-500</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-400</v>
       </c>
       <c r="V27" s="3">
         <v>-400</v>
       </c>
       <c r="W27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="X27" s="3">
         <v>-300</v>
       </c>
       <c r="Y27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2342,23 +2412,23 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2369,11 +2439,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2404,49 +2474,52 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-300</v>
       </c>
       <c r="Q33" s="3">
         <v>-300</v>
@@ -2458,25 +2531,28 @@
         <v>-300</v>
       </c>
       <c r="T33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U33" s="3">
         <v>-500</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-400</v>
       </c>
       <c r="V33" s="3">
         <v>-400</v>
       </c>
       <c r="W33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="X33" s="3">
         <v>-300</v>
       </c>
       <c r="Y33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,49 +2622,52 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-300</v>
       </c>
       <c r="Q35" s="3">
         <v>-300</v>
@@ -2600,101 +2679,107 @@
         <v>-300</v>
       </c>
       <c r="T35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U35" s="3">
         <v>-500</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-400</v>
       </c>
       <c r="V35" s="3">
         <v>-400</v>
       </c>
       <c r="W35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="X35" s="3">
         <v>-300</v>
       </c>
       <c r="Y35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43251</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43159</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43069</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42978</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42886</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42794</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42704</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +2833,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2756,19 +2843,19 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>100</v>
@@ -2780,7 +2867,7 @@
         <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
         <v>200</v>
@@ -2789,37 +2876,40 @@
         <v>200</v>
       </c>
       <c r="P41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>100</v>
-      </c>
-      <c r="U41" s="3">
-        <v>200</v>
       </c>
       <c r="V41" s="3">
         <v>200</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X41" s="3">
         <v>100</v>
       </c>
       <c r="Y41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2925,11 +3018,11 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
@@ -2945,8 +3038,8 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
+      <c r="U43" s="3">
+        <v>0</v>
       </c>
       <c r="V43" s="3" t="s">
         <v>4</v>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2975,13 +3071,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>100</v>
       </c>
       <c r="I44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J44" s="3">
         <v>300</v>
@@ -2996,16 +3092,16 @@
         <v>300</v>
       </c>
       <c r="N44" s="3">
+        <v>300</v>
+      </c>
+      <c r="O44" s="3">
         <v>100</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
       <c r="Q44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R44" s="3">
         <v>100</v>
@@ -3017,7 +3113,7 @@
         <v>100</v>
       </c>
       <c r="U44" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="V44" s="3">
         <v>300</v>
@@ -3026,13 +3122,16 @@
         <v>300</v>
       </c>
       <c r="X44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y44" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3061,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -3070,16 +3169,16 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
-      </c>
-      <c r="R45" s="3">
-        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -3088,22 +3187,25 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
       <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
         <v>100</v>
       </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3117,13 +3219,13 @@
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>400</v>
@@ -3135,46 +3237,49 @@
         <v>400</v>
       </c>
       <c r="M46" s="3">
+        <v>400</v>
+      </c>
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
-      </c>
-      <c r="P46" s="3">
-        <v>300</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
       </c>
       <c r="R46" s="3">
+        <v>300</v>
+      </c>
+      <c r="S46" s="3">
         <v>200</v>
-      </c>
-      <c r="S46" s="3">
-        <v>300</v>
       </c>
       <c r="T46" s="3">
         <v>300</v>
       </c>
       <c r="U46" s="3">
+        <v>300</v>
+      </c>
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>300</v>
-      </c>
-      <c r="X46" s="3">
-        <v>400</v>
       </c>
       <c r="Y46" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3256,7 +3364,7 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G48" s="3">
         <v>200</v>
@@ -3265,7 +3373,7 @@
         <v>200</v>
       </c>
       <c r="I48" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
         <v>100</v>
@@ -3274,7 +3382,7 @@
         <v>100</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
@@ -3283,11 +3391,11 @@
         <v>200</v>
       </c>
       <c r="O48" s="3">
+        <v>200</v>
+      </c>
+      <c r="P48" s="3">
         <v>100</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
@@ -3307,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="W48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X48" s="3">
         <v>100</v>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3335,8 +3446,8 @@
       <c r="H49" s="3">
         <v>0</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="I49" s="3">
+        <v>0</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -3353,8 +3464,8 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,8 +3793,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3679,16 +3805,16 @@
         <v>200</v>
       </c>
       <c r="E54" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
         <v>300</v>
       </c>
       <c r="G54" s="3">
+        <v>300</v>
+      </c>
+      <c r="H54" s="3">
         <v>400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>500</v>
       </c>
       <c r="I54" s="3">
         <v>500</v>
@@ -3700,49 +3826,52 @@
         <v>500</v>
       </c>
       <c r="L54" s="3">
+        <v>500</v>
+      </c>
+      <c r="M54" s="3">
         <v>600</v>
-      </c>
-      <c r="M54" s="3">
-        <v>800</v>
       </c>
       <c r="N54" s="3">
         <v>800</v>
       </c>
       <c r="O54" s="3">
+        <v>800</v>
+      </c>
+      <c r="P54" s="3">
         <v>500</v>
-      </c>
-      <c r="P54" s="3">
-        <v>300</v>
       </c>
       <c r="Q54" s="3">
         <v>300</v>
       </c>
       <c r="R54" s="3">
+        <v>300</v>
+      </c>
+      <c r="S54" s="3">
         <v>200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>400</v>
-      </c>
-      <c r="X54" s="3">
-        <v>500</v>
       </c>
       <c r="Y54" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3804,19 +3935,19 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -3831,7 +3962,7 @@
         <v>100</v>
       </c>
       <c r="N57" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -3866,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,155 +4071,164 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1900</v>
       </c>
       <c r="K59" s="3">
         <v>1900</v>
       </c>
       <c r="L59" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="M59" s="3">
         <v>1800</v>
       </c>
       <c r="N59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1300</v>
       </c>
       <c r="R59" s="3">
         <v>1300</v>
       </c>
       <c r="S59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>800</v>
-      </c>
-      <c r="X59" s="3">
-        <v>700</v>
       </c>
       <c r="Y59" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
         <v>3500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1900</v>
       </c>
       <c r="L60" s="3">
         <v>1900</v>
       </c>
       <c r="M60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N60" s="3">
         <v>1800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1500</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1400</v>
       </c>
       <c r="Q60" s="3">
         <v>1400</v>
       </c>
       <c r="R60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1200</v>
-      </c>
-      <c r="T60" s="3">
-        <v>1100</v>
       </c>
       <c r="U60" s="3">
         <v>1100</v>
       </c>
       <c r="V60" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="W60" s="3">
         <v>900</v>
       </c>
       <c r="X60" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y60" s="3">
         <v>800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4150,13 +4293,16 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -4165,13 +4311,13 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
@@ -4186,11 +4332,11 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>100</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E66" s="3">
         <v>3500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2000</v>
       </c>
       <c r="K66" s="3">
         <v>2000</v>
       </c>
       <c r="L66" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="M66" s="3">
         <v>1900</v>
       </c>
       <c r="N66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O66" s="3">
         <v>1800</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1500</v>
       </c>
       <c r="P66" s="3">
         <v>1500</v>
       </c>
       <c r="Q66" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R66" s="3">
         <v>1400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
-      </c>
-      <c r="S66" s="3">
-        <v>1200</v>
       </c>
       <c r="T66" s="3">
         <v>1200</v>
       </c>
       <c r="U66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V66" s="3">
         <v>1100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4683,7 +4851,7 @@
         <v>2200</v>
       </c>
       <c r="E70" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F70" s="3">
         <v>2100</v>
@@ -4695,16 +4863,16 @@
         <v>2100</v>
       </c>
       <c r="I70" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J70" s="3">
         <v>2000</v>
-      </c>
-      <c r="J70" s="3">
-        <v>2100</v>
       </c>
       <c r="K70" s="3">
         <v>2100</v>
       </c>
       <c r="L70" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="M70" s="3">
         <v>2000</v>
@@ -4713,13 +4881,13 @@
         <v>2000</v>
       </c>
       <c r="O70" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="P70" s="3">
         <v>1900</v>
       </c>
       <c r="Q70" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="R70" s="3">
         <v>1800</v>
@@ -4728,13 +4896,13 @@
         <v>1800</v>
       </c>
       <c r="T70" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="U70" s="3">
         <v>1700</v>
       </c>
       <c r="V70" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="W70" s="3">
         <v>1600</v>
@@ -4743,10 +4911,13 @@
         <v>1600</v>
       </c>
       <c r="Y70" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Z70" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-11900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-9600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-9200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-7700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-7400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-6900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-6400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-6100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,43 +5283,46 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-5500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-5100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-4900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-4400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-3100</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-3000</v>
       </c>
       <c r="O76" s="3">
         <v>-3000</v>
@@ -5145,19 +5331,19 @@
         <v>-3000</v>
       </c>
       <c r="Q76" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="R76" s="3">
         <v>-2900</v>
       </c>
       <c r="S76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="T76" s="3">
         <v>-2700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2500</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-2100</v>
       </c>
       <c r="V76" s="3">
         <v>-2100</v>
@@ -5166,13 +5352,16 @@
         <v>-2100</v>
       </c>
       <c r="X76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,125 +5431,131 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43251</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43159</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43069</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42978</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42886</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42794</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42704</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42613</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-300</v>
       </c>
       <c r="Q81" s="3">
         <v>-300</v>
@@ -5372,25 +5567,28 @@
         <v>-300</v>
       </c>
       <c r="T81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U81" s="3">
         <v>-500</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-400</v>
       </c>
       <c r="V81" s="3">
         <v>-400</v>
       </c>
       <c r="W81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="X81" s="3">
         <v>-300</v>
       </c>
       <c r="Y81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5857,7 +6074,7 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
@@ -5866,34 +6083,34 @@
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>-300</v>
       </c>
       <c r="L89" s="3">
         <v>-300</v>
       </c>
       <c r="M89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-300</v>
       </c>
       <c r="O89" s="3">
         <v>-300</v>
       </c>
       <c r="P89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-200</v>
       </c>
       <c r="T89" s="3">
         <v>-200</v>
@@ -5913,8 +6130,11 @@
       <c r="Y89" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,22 +6160,23 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -5981,8 +6202,8 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -5993,8 +6214,8 @@
       <c r="S91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6002,17 +6223,20 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6215,17 +6445,20 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,16 +6778,19 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
@@ -6553,61 +6799,64 @@
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>200</v>
       </c>
       <c r="J100" s="3">
+        <v>200</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
-      </c>
-      <c r="L100" s="3">
-        <v>200</v>
       </c>
       <c r="M100" s="3">
         <v>200</v>
       </c>
       <c r="N100" s="3">
+        <v>200</v>
+      </c>
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
-      </c>
-      <c r="P100" s="3">
-        <v>200</v>
       </c>
       <c r="Q100" s="3">
         <v>200</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
-      </c>
-      <c r="X100" s="3">
-        <v>200</v>
       </c>
       <c r="Y100" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,29 +6926,32 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
         <v>-100</v>
       </c>
       <c r="H102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -6707,29 +6959,29 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
         <v>100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -6737,15 +6989,18 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>
